--- a/Data Wisudawan.xlsx
+++ b/Data Wisudawan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asusj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D11803-4165-45F8-A91F-10D8D0921B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B276AA4-B4FE-4B78-AB72-D955A61108D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3FBF1DF3-F98D-4F82-A374-D46FFEA82B89}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>IPK</t>
   </si>
   <si>
-    <t>Lama Studi (Semester)</t>
-  </si>
-  <si>
     <t>Tahun Wisuda</t>
   </si>
   <si>
@@ -781,6 +778,9 @@
   </si>
   <si>
     <t>Yoga Aulia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lama Studi </t>
   </si>
 </sst>
 </file>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C56FC46-ED8E-4F86-8EB3-620BF8D6B1DA}">
   <dimension ref="A1:F348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,10 +1179,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1190,10 +1190,10 @@
         <v>231001</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>3.76</v>
@@ -1210,10 +1210,10 @@
         <v>231002</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2.88</v>
@@ -1230,10 +1230,10 @@
         <v>231003</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3.93</v>
@@ -1250,10 +1250,10 @@
         <v>231004</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5">
         <v>2.87</v>
@@ -1270,10 +1270,10 @@
         <v>231005</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
       <c r="D6">
         <v>2.98</v>
@@ -1290,10 +1290,10 @@
         <v>231006</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
       <c r="D7">
         <v>3.76</v>
@@ -1310,10 +1310,10 @@
         <v>231007</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
       <c r="D8">
         <v>2.89</v>
@@ -1330,10 +1330,10 @@
         <v>231008</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>3.23</v>
@@ -1350,10 +1350,10 @@
         <v>231009</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>2.84</v>
@@ -1370,10 +1370,10 @@
         <v>231010</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
       <c r="D11">
         <v>2.63</v>
@@ -1390,10 +1390,10 @@
         <v>231011</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>3.76</v>
@@ -1410,10 +1410,10 @@
         <v>231012</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2.5499999999999998</v>
@@ -1430,10 +1430,10 @@
         <v>231013</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14">
         <v>3.23</v>
@@ -1450,10 +1450,10 @@
         <v>231014</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
       <c r="D15">
         <v>2.94</v>
@@ -1470,10 +1470,10 @@
         <v>231015</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>3.15</v>
@@ -1490,10 +1490,10 @@
         <v>231016</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
       </c>
       <c r="D17">
         <v>3.51</v>
@@ -1510,10 +1510,10 @@
         <v>231017</v>
       </c>
       <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
       </c>
       <c r="D18">
         <v>2.65</v>
@@ -1530,10 +1530,10 @@
         <v>231018</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>3.4</v>
@@ -1550,10 +1550,10 @@
         <v>231019</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>3.1</v>
@@ -1570,10 +1570,10 @@
         <v>231020</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>3.56</v>
@@ -1590,10 +1590,10 @@
         <v>231021</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>3.4</v>
@@ -1610,10 +1610,10 @@
         <v>231022</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>3.5</v>
@@ -1630,10 +1630,10 @@
         <v>231023</v>
       </c>
       <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
         <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
       </c>
       <c r="D24">
         <v>2.59</v>
@@ -1650,10 +1650,10 @@
         <v>231024</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>2.75</v>
@@ -1670,10 +1670,10 @@
         <v>231025</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>3.05</v>
@@ -1690,10 +1690,10 @@
         <v>231026</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>2.78</v>
@@ -1710,10 +1710,10 @@
         <v>231027</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>3.47</v>
@@ -1730,10 +1730,10 @@
         <v>231028</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>3.32</v>
@@ -1750,10 +1750,10 @@
         <v>231029</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>2.89</v>
@@ -1770,10 +1770,10 @@
         <v>231030</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31">
         <v>3.32</v>
@@ -1790,10 +1790,10 @@
         <v>231031</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>2.6</v>
@@ -1810,10 +1810,10 @@
         <v>231032</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>2.95</v>
@@ -1830,10 +1830,10 @@
         <v>231033</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>3.13</v>
@@ -1850,10 +1850,10 @@
         <v>231034</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>2.52</v>
@@ -1870,10 +1870,10 @@
         <v>231035</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36">
         <v>2.62</v>
@@ -1890,10 +1890,10 @@
         <v>231036</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>3.86</v>
@@ -1910,10 +1910,10 @@
         <v>231037</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>3.1</v>
@@ -1930,10 +1930,10 @@
         <v>231038</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39">
         <v>3.34</v>
@@ -1950,10 +1950,10 @@
         <v>231039</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40">
         <v>3.69</v>
@@ -1970,10 +1970,10 @@
         <v>231040</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>3.77</v>
@@ -1990,10 +1990,10 @@
         <v>231041</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42">
         <v>2.5499999999999998</v>
@@ -2010,10 +2010,10 @@
         <v>231042</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43">
         <v>3.48</v>
@@ -2030,10 +2030,10 @@
         <v>231043</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44">
         <v>3.55</v>
@@ -2050,10 +2050,10 @@
         <v>231044</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45">
         <v>2.84</v>
@@ -2070,10 +2070,10 @@
         <v>231045</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46">
         <v>3.34</v>
@@ -2090,10 +2090,10 @@
         <v>231046</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47">
         <v>3.76</v>
@@ -2110,10 +2110,10 @@
         <v>231047</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <v>2.65</v>
@@ -2130,10 +2130,10 @@
         <v>231048</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49">
         <v>3.8</v>
@@ -2150,10 +2150,10 @@
         <v>231049</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50">
         <v>3.22</v>
@@ -2170,10 +2170,10 @@
         <v>231050</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>3.57</v>
@@ -2190,10 +2190,10 @@
         <v>231051</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52">
         <v>3.71</v>
@@ -2210,10 +2210,10 @@
         <v>231052</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53">
         <v>3.87</v>
@@ -2230,10 +2230,10 @@
         <v>231053</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>3.76</v>
@@ -2250,10 +2250,10 @@
         <v>231054</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>2.76</v>
@@ -2270,10 +2270,10 @@
         <v>231055</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56">
         <v>3.9</v>
@@ -2290,10 +2290,10 @@
         <v>231056</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57">
         <v>3.82</v>
@@ -2310,10 +2310,10 @@
         <v>231058</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58">
         <v>3.68</v>
@@ -2330,10 +2330,10 @@
         <v>231059</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>3.69</v>
@@ -2350,10 +2350,10 @@
         <v>231060</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60">
         <v>3.3</v>
@@ -2370,10 +2370,10 @@
         <v>231062</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61">
         <v>2.8</v>
@@ -2390,10 +2390,10 @@
         <v>231063</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>2.61</v>
@@ -2410,10 +2410,10 @@
         <v>231064</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63">
         <v>2.98</v>
@@ -2430,10 +2430,10 @@
         <v>231065</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>3.37</v>
@@ -2450,10 +2450,10 @@
         <v>231066</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>3.98</v>
@@ -2470,10 +2470,10 @@
         <v>231067</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66">
         <v>3.38</v>
@@ -2490,10 +2490,10 @@
         <v>231069</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67">
         <v>3.72</v>
@@ -2510,10 +2510,10 @@
         <v>231070</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68">
         <v>2.66</v>
@@ -2530,10 +2530,10 @@
         <v>231071</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>3.85</v>
@@ -2550,10 +2550,10 @@
         <v>231072</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70">
         <v>3.27</v>
@@ -2570,10 +2570,10 @@
         <v>231073</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>3.97</v>
@@ -2590,10 +2590,10 @@
         <v>231074</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72">
         <v>2.58</v>
@@ -2610,10 +2610,10 @@
         <v>231075</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73">
         <v>3.2</v>
@@ -2630,10 +2630,10 @@
         <v>231076</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74">
         <v>3.71</v>
@@ -2650,10 +2650,10 @@
         <v>231077</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75">
         <v>3.44</v>
@@ -2670,10 +2670,10 @@
         <v>231078</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76">
         <v>3.27</v>
@@ -2690,10 +2690,10 @@
         <v>231080</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>3.84</v>
@@ -2710,10 +2710,10 @@
         <v>231081</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78">
         <v>3.29</v>
@@ -2730,10 +2730,10 @@
         <v>231082</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79">
         <v>3.38</v>
@@ -2750,10 +2750,10 @@
         <v>231083</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80">
         <v>3.99</v>
@@ -2770,10 +2770,10 @@
         <v>231084</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81">
         <v>3.32</v>
@@ -2790,10 +2790,10 @@
         <v>231085</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>3.38</v>
@@ -2810,10 +2810,10 @@
         <v>231086</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>2.86</v>
@@ -2830,10 +2830,10 @@
         <v>231087</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84">
         <v>3.04</v>
@@ -2850,10 +2850,10 @@
         <v>231088</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D85">
         <v>3.82</v>
@@ -2870,10 +2870,10 @@
         <v>231089</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86">
         <v>3.17</v>
@@ -2890,10 +2890,10 @@
         <v>231090</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87">
         <v>3.18</v>
@@ -2910,10 +2910,10 @@
         <v>231091</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D88">
         <v>3.32</v>
@@ -2930,10 +2930,10 @@
         <v>231092</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D89">
         <v>3.67</v>
@@ -2950,10 +2950,10 @@
         <v>231093</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90">
         <v>3.48</v>
@@ -2970,10 +2970,10 @@
         <v>231094</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91">
         <v>3.5</v>
@@ -2990,10 +2990,10 @@
         <v>231095</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92">
         <v>3.47</v>
@@ -3010,10 +3010,10 @@
         <v>231096</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93">
         <v>3.62</v>
@@ -3030,10 +3030,10 @@
         <v>231097</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D94">
         <v>3.56</v>
@@ -3050,10 +3050,10 @@
         <v>231098</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95">
         <v>3.61</v>
@@ -3070,10 +3070,10 @@
         <v>231099</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96">
         <v>3.41</v>
@@ -3090,10 +3090,10 @@
         <v>231100</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97">
         <v>3.5</v>
@@ -3110,10 +3110,10 @@
         <v>231101</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98">
         <v>3.73</v>
@@ -3130,10 +3130,10 @@
         <v>231102</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99">
         <v>3.59</v>
@@ -3150,10 +3150,10 @@
         <v>231103</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100">
         <v>3.53</v>
@@ -3170,10 +3170,10 @@
         <v>231104</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101">
         <v>3.1</v>
@@ -3190,10 +3190,10 @@
         <v>231105</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102">
         <v>2.74</v>
@@ -3210,10 +3210,10 @@
         <v>231106</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103">
         <v>3.09</v>
@@ -3230,10 +3230,10 @@
         <v>231107</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104">
         <v>2.71</v>
@@ -3250,10 +3250,10 @@
         <v>231108</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D105">
         <v>3.23</v>
@@ -3270,10 +3270,10 @@
         <v>231109</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106">
         <v>2.73</v>
@@ -3290,10 +3290,10 @@
         <v>231110</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D107">
         <v>2.8</v>
@@ -3310,10 +3310,10 @@
         <v>231111</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108">
         <v>3.35</v>
@@ -3330,10 +3330,10 @@
         <v>231112</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D109">
         <v>3.13</v>
@@ -3350,10 +3350,10 @@
         <v>231113</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110">
         <v>2.7</v>
@@ -3370,10 +3370,10 @@
         <v>231114</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111">
         <v>3.76</v>
@@ -3390,10 +3390,10 @@
         <v>231115</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D112">
         <v>3.7</v>
@@ -3410,10 +3410,10 @@
         <v>231116</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113">
         <v>3.84</v>
@@ -3430,10 +3430,10 @@
         <v>231117</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114">
         <v>3.12</v>
@@ -3450,10 +3450,10 @@
         <v>231118</v>
       </c>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115">
         <v>3.94</v>
@@ -3470,10 +3470,10 @@
         <v>231119</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D116">
         <v>3.39</v>
@@ -3490,10 +3490,10 @@
         <v>231120</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117">
         <v>3.12</v>
@@ -3510,10 +3510,10 @@
         <v>231121</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D118">
         <v>2.2999999999999998</v>
@@ -3530,10 +3530,10 @@
         <v>231122</v>
       </c>
       <c r="B119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D119">
         <v>3.14</v>
@@ -3550,10 +3550,10 @@
         <v>231123</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D120">
         <v>2.74</v>
@@ -3570,10 +3570,10 @@
         <v>231124</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D121">
         <v>2.72</v>
@@ -3590,10 +3590,10 @@
         <v>231125</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122">
         <v>3.26</v>
@@ -3610,10 +3610,10 @@
         <v>231126</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D123">
         <v>2.69</v>
@@ -3630,10 +3630,10 @@
         <v>231127</v>
       </c>
       <c r="B124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D124">
         <v>3.21</v>
@@ -3650,10 +3650,10 @@
         <v>231128</v>
       </c>
       <c r="B125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D125">
         <v>2.79</v>
@@ -3670,10 +3670,10 @@
         <v>231129</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D126">
         <v>3.32</v>
@@ -3690,10 +3690,10 @@
         <v>231130</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127">
         <v>3.16</v>
@@ -3710,10 +3710,10 @@
         <v>231131</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128">
         <v>2.74</v>
@@ -3730,10 +3730,10 @@
         <v>231132</v>
       </c>
       <c r="B129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D129">
         <v>3.88</v>
@@ -3750,10 +3750,10 @@
         <v>231133</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130">
         <v>2.6</v>
@@ -3770,10 +3770,10 @@
         <v>231134</v>
       </c>
       <c r="B131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D131">
         <v>3.45</v>
@@ -3790,10 +3790,10 @@
         <v>231135</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D132">
         <v>3.93</v>
@@ -3810,10 +3810,10 @@
         <v>231136</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D133">
         <v>2.63</v>
@@ -3830,10 +3830,10 @@
         <v>231137</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D134">
         <v>3.17</v>
@@ -3850,10 +3850,10 @@
         <v>231138</v>
       </c>
       <c r="B135" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D135">
         <v>2.74</v>
@@ -3870,10 +3870,10 @@
         <v>231139</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136">
         <v>3.75</v>
@@ -3890,10 +3890,10 @@
         <v>231140</v>
       </c>
       <c r="B137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137">
         <v>3.24</v>
@@ -3910,10 +3910,10 @@
         <v>231141</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D138">
         <v>2.62</v>
@@ -3930,10 +3930,10 @@
         <v>231142</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D139">
         <v>2.9</v>
@@ -3950,10 +3950,10 @@
         <v>231143</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D140">
         <v>2.82</v>
@@ -3970,10 +3970,10 @@
         <v>231144</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D141">
         <v>3.23</v>
@@ -3990,10 +3990,10 @@
         <v>231145</v>
       </c>
       <c r="B142" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D142">
         <v>3.87</v>
@@ -4010,10 +4010,10 @@
         <v>231146</v>
       </c>
       <c r="B143" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D143">
         <v>3.09</v>
@@ -4030,10 +4030,10 @@
         <v>231147</v>
       </c>
       <c r="B144" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -4050,10 +4050,10 @@
         <v>231149</v>
       </c>
       <c r="B145" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D145">
         <v>2.62</v>
@@ -4070,10 +4070,10 @@
         <v>231150</v>
       </c>
       <c r="B146" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D146">
         <v>3.72</v>
@@ -4090,10 +4090,10 @@
         <v>231151</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147">
         <v>3.99</v>
@@ -4110,10 +4110,10 @@
         <v>231152</v>
       </c>
       <c r="B148" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D148">
         <v>2.59</v>
@@ -4130,10 +4130,10 @@
         <v>231154</v>
       </c>
       <c r="B149" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D149">
         <v>3.89</v>
@@ -4150,10 +4150,10 @@
         <v>231155</v>
       </c>
       <c r="B150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D150">
         <v>3.58</v>
@@ -4170,10 +4170,10 @@
         <v>231156</v>
       </c>
       <c r="B151" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D151">
         <v>2.71</v>
@@ -4190,10 +4190,10 @@
         <v>231157</v>
       </c>
       <c r="B152" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D152">
         <v>3.53</v>
@@ -4210,10 +4210,10 @@
         <v>231158</v>
       </c>
       <c r="B153" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D153">
         <v>2.85</v>
@@ -4230,10 +4230,10 @@
         <v>231159</v>
       </c>
       <c r="B154" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D154">
         <v>2.8</v>
@@ -4250,10 +4250,10 @@
         <v>231160</v>
       </c>
       <c r="B155" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D155">
         <v>3.78</v>
@@ -4270,10 +4270,10 @@
         <v>231161</v>
       </c>
       <c r="B156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D156">
         <v>3.76</v>
@@ -4290,10 +4290,10 @@
         <v>231162</v>
       </c>
       <c r="B157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D157">
         <v>2.9</v>
@@ -4310,10 +4310,10 @@
         <v>231163</v>
       </c>
       <c r="B158" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D158">
         <v>3.93</v>
@@ -4330,10 +4330,10 @@
         <v>231164</v>
       </c>
       <c r="B159" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159">
         <v>2.73</v>
@@ -4350,10 +4350,10 @@
         <v>231165</v>
       </c>
       <c r="B160" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160">
         <v>3.54</v>
@@ -4370,10 +4370,10 @@
         <v>231166</v>
       </c>
       <c r="B161" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D161">
         <v>3.59</v>
@@ -4390,10 +4390,10 @@
         <v>231167</v>
       </c>
       <c r="B162" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -4410,10 +4410,10 @@
         <v>231168</v>
       </c>
       <c r="B163" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D163">
         <v>2.6</v>
@@ -4430,10 +4430,10 @@
         <v>231170</v>
       </c>
       <c r="B164" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D164">
         <v>2.69</v>
@@ -4450,10 +4450,10 @@
         <v>231171</v>
       </c>
       <c r="B165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D165">
         <v>2.92</v>
@@ -4470,10 +4470,10 @@
         <v>231172</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D166">
         <v>3.32</v>
@@ -4490,10 +4490,10 @@
         <v>231173</v>
       </c>
       <c r="B167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D167">
         <v>3.96</v>
@@ -4510,10 +4510,10 @@
         <v>231174</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D168">
         <v>3.07</v>
@@ -4530,10 +4530,10 @@
         <v>231175</v>
       </c>
       <c r="B169" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D169">
         <v>3.57</v>
@@ -4550,10 +4550,10 @@
         <v>231176</v>
       </c>
       <c r="B170" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170">
         <v>3.79</v>
@@ -4570,10 +4570,10 @@
         <v>231177</v>
       </c>
       <c r="B171" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D171">
         <v>3.63</v>
@@ -4590,10 +4590,10 @@
         <v>231178</v>
       </c>
       <c r="B172" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D172">
         <v>2.84</v>
@@ -4610,10 +4610,10 @@
         <v>231179</v>
       </c>
       <c r="B173" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D173">
         <v>3.8</v>
@@ -4630,10 +4630,10 @@
         <v>231180</v>
       </c>
       <c r="B174" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D174">
         <v>2.57</v>
@@ -4650,10 +4650,10 @@
         <v>231183</v>
       </c>
       <c r="B175" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D175">
         <v>3.44</v>
@@ -4670,10 +4670,10 @@
         <v>231184</v>
       </c>
       <c r="B176" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D176">
         <v>3.81</v>
@@ -4690,10 +4690,10 @@
         <v>231185</v>
       </c>
       <c r="B177" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D177">
         <v>3.22</v>
@@ -4710,10 +4710,10 @@
         <v>231186</v>
       </c>
       <c r="B178" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D178">
         <v>2.74</v>
@@ -4730,10 +4730,10 @@
         <v>231187</v>
       </c>
       <c r="B179" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D179">
         <v>3.61</v>
@@ -4750,10 +4750,10 @@
         <v>231188</v>
       </c>
       <c r="B180" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D180">
         <v>3.19</v>
@@ -4770,10 +4770,10 @@
         <v>231189</v>
       </c>
       <c r="B181" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181">
         <v>3.39</v>
@@ -4790,10 +4790,10 @@
         <v>231190</v>
       </c>
       <c r="B182" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D182">
         <v>3.99</v>
@@ -4810,10 +4810,10 @@
         <v>231191</v>
       </c>
       <c r="B183" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D183">
         <v>3.94</v>
@@ -4830,10 +4830,10 @@
         <v>231192</v>
       </c>
       <c r="B184" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D184">
         <v>2.86</v>
@@ -4850,10 +4850,10 @@
         <v>231193</v>
       </c>
       <c r="B185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D185">
         <v>2.63</v>
@@ -4870,10 +4870,10 @@
         <v>231194</v>
       </c>
       <c r="B186" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D186">
         <v>2.94</v>
@@ -4890,10 +4890,10 @@
         <v>231196</v>
       </c>
       <c r="B187" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D187">
         <v>3.82</v>
@@ -4910,10 +4910,10 @@
         <v>231197</v>
       </c>
       <c r="B188" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D188">
         <v>3.37</v>
@@ -4930,10 +4930,10 @@
         <v>231198</v>
       </c>
       <c r="B189" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D189">
         <v>3.83</v>
@@ -4950,10 +4950,10 @@
         <v>231199</v>
       </c>
       <c r="B190" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D190">
         <v>3.34</v>
@@ -4970,10 +4970,10 @@
         <v>231200</v>
       </c>
       <c r="B191" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D191">
         <v>3.18</v>
@@ -4990,10 +4990,10 @@
         <v>231201</v>
       </c>
       <c r="B192" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D192">
         <v>2.91</v>
@@ -5010,10 +5010,10 @@
         <v>231202</v>
       </c>
       <c r="B193" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D193">
         <v>3.82</v>
@@ -5030,10 +5030,10 @@
         <v>231203</v>
       </c>
       <c r="B194" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D194">
         <v>3.17</v>
@@ -5050,10 +5050,10 @@
         <v>231204</v>
       </c>
       <c r="B195" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195">
         <v>3.3</v>
@@ -5070,10 +5070,10 @@
         <v>231205</v>
       </c>
       <c r="B196" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196">
         <v>3.42</v>
@@ -5090,10 +5090,10 @@
         <v>231206</v>
       </c>
       <c r="B197" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D197">
         <v>2.82</v>
@@ -5110,10 +5110,10 @@
         <v>231207</v>
       </c>
       <c r="B198" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D198">
         <v>3.97</v>
@@ -5130,10 +5130,10 @@
         <v>231208</v>
       </c>
       <c r="B199" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D199">
         <v>2.56</v>
@@ -5150,10 +5150,10 @@
         <v>231209</v>
       </c>
       <c r="B200" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D200">
         <v>3.49</v>
@@ -5170,10 +5170,10 @@
         <v>231210</v>
       </c>
       <c r="B201" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D201">
         <v>3.88</v>
@@ -5190,10 +5190,10 @@
         <v>231211</v>
       </c>
       <c r="B202" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C202" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D202">
         <v>3.82</v>
@@ -5210,10 +5210,10 @@
         <v>231212</v>
       </c>
       <c r="B203" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D203">
         <v>2.87</v>
@@ -5230,10 +5230,10 @@
         <v>231213</v>
       </c>
       <c r="B204" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D204">
         <v>2.88</v>
@@ -5250,10 +5250,10 @@
         <v>231214</v>
       </c>
       <c r="B205" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D205">
         <v>3.51</v>
@@ -5270,10 +5270,10 @@
         <v>231215</v>
       </c>
       <c r="B206" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D206">
         <v>2.74</v>
@@ -5290,10 +5290,10 @@
         <v>231217</v>
       </c>
       <c r="B207" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D207">
         <v>2.81</v>
@@ -5310,10 +5310,10 @@
         <v>231218</v>
       </c>
       <c r="B208" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D208">
         <v>3.86</v>
@@ -5330,10 +5330,10 @@
         <v>231219</v>
       </c>
       <c r="B209" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D209">
         <v>3.58</v>
@@ -5350,10 +5350,10 @@
         <v>231220</v>
       </c>
       <c r="B210" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D210">
         <v>3.79</v>
@@ -5370,10 +5370,10 @@
         <v>231221</v>
       </c>
       <c r="B211" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D211">
         <v>2.7</v>
@@ -5390,10 +5390,10 @@
         <v>231222</v>
       </c>
       <c r="B212" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D212">
         <v>2.5099999999999998</v>
@@ -5410,10 +5410,10 @@
         <v>231223</v>
       </c>
       <c r="B213" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D213">
         <v>2.67</v>
@@ -5430,10 +5430,10 @@
         <v>231224</v>
       </c>
       <c r="B214" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C214" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D214">
         <v>2.62</v>
@@ -5450,10 +5450,10 @@
         <v>231225</v>
       </c>
       <c r="B215" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D215">
         <v>3.53</v>
@@ -5470,10 +5470,10 @@
         <v>231226</v>
       </c>
       <c r="B216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D216">
         <v>3.3</v>
@@ -5490,10 +5490,10 @@
         <v>231227</v>
       </c>
       <c r="B217" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C217" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D217">
         <v>3.58</v>
@@ -5510,10 +5510,10 @@
         <v>231228</v>
       </c>
       <c r="B218" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D218">
         <v>3.84</v>
@@ -5530,10 +5530,10 @@
         <v>231229</v>
       </c>
       <c r="B219" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D219">
         <v>3.3</v>
@@ -5550,10 +5550,10 @@
         <v>231230</v>
       </c>
       <c r="B220" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D220">
         <v>3.14</v>
@@ -5570,10 +5570,10 @@
         <v>231231</v>
       </c>
       <c r="B221" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D221">
         <v>2.94</v>
@@ -5590,10 +5590,10 @@
         <v>231232</v>
       </c>
       <c r="B222" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D222">
         <v>3.2</v>
@@ -5610,10 +5610,10 @@
         <v>231233</v>
       </c>
       <c r="B223" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D223">
         <v>3.26</v>
@@ -5630,10 +5630,10 @@
         <v>231234</v>
       </c>
       <c r="B224" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D224">
         <v>3.59</v>
@@ -5650,10 +5650,10 @@
         <v>231235</v>
       </c>
       <c r="B225" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C225" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D225">
         <v>3.53</v>
@@ -5670,10 +5670,10 @@
         <v>231236</v>
       </c>
       <c r="B226" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D226">
         <v>2.84</v>
@@ -5690,10 +5690,10 @@
         <v>231237</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D227">
         <v>3.97</v>
@@ -5710,10 +5710,10 @@
         <v>231238</v>
       </c>
       <c r="B228" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D228">
         <v>3.08</v>
@@ -5730,10 +5730,10 @@
         <v>231239</v>
       </c>
       <c r="B229" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D229">
         <v>3.38</v>
@@ -5750,10 +5750,10 @@
         <v>231240</v>
       </c>
       <c r="B230" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D230">
         <v>3.71</v>
@@ -5770,10 +5770,10 @@
         <v>231241</v>
       </c>
       <c r="B231" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C231" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D231">
         <v>3.83</v>
@@ -5790,10 +5790,10 @@
         <v>231242</v>
       </c>
       <c r="B232" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D232">
         <v>3.69</v>
@@ -5810,10 +5810,10 @@
         <v>231243</v>
       </c>
       <c r="B233" t="s">
+        <v>26</v>
+      </c>
+      <c r="C233" t="s">
         <v>27</v>
-      </c>
-      <c r="C233" t="s">
-        <v>28</v>
       </c>
       <c r="D233">
         <v>3.28</v>
@@ -5830,10 +5830,10 @@
         <v>231244</v>
       </c>
       <c r="B234" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C234" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D234">
         <v>2.88</v>
@@ -5850,10 +5850,10 @@
         <v>231245</v>
       </c>
       <c r="B235" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D235">
         <v>3.26</v>
@@ -5870,10 +5870,10 @@
         <v>231246</v>
       </c>
       <c r="B236" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D236">
         <v>3.67</v>
@@ -5890,10 +5890,10 @@
         <v>231247</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D237">
         <v>3.46</v>
@@ -5910,10 +5910,10 @@
         <v>231248</v>
       </c>
       <c r="B238" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D238">
         <v>3.54</v>
@@ -5930,10 +5930,10 @@
         <v>231249</v>
       </c>
       <c r="B239" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D239">
         <v>3.17</v>
@@ -5950,10 +5950,10 @@
         <v>231250</v>
       </c>
       <c r="B240" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D240">
         <v>3.02</v>
@@ -5970,10 +5970,10 @@
         <v>231251</v>
       </c>
       <c r="B241" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D241">
         <v>2.52</v>
@@ -5990,10 +5990,10 @@
         <v>231252</v>
       </c>
       <c r="B242" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C242" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D242">
         <v>3.67</v>
@@ -6010,10 +6010,10 @@
         <v>231254</v>
       </c>
       <c r="B243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C243" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D243">
         <v>3.13</v>
@@ -6030,10 +6030,10 @@
         <v>231255</v>
       </c>
       <c r="B244" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D244">
         <v>2.7</v>
@@ -6050,10 +6050,10 @@
         <v>231256</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D245">
         <v>3.57</v>
@@ -6070,10 +6070,10 @@
         <v>231257</v>
       </c>
       <c r="B246" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C246" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D246">
         <v>3.77</v>
@@ -6090,10 +6090,10 @@
         <v>231258</v>
       </c>
       <c r="B247" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C247" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D247">
         <v>3.81</v>
@@ -6110,10 +6110,10 @@
         <v>231259</v>
       </c>
       <c r="B248" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C248" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D248">
         <v>3.28</v>
@@ -6130,10 +6130,10 @@
         <v>231260</v>
       </c>
       <c r="B249" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C249" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D249">
         <v>2.72</v>
@@ -6150,10 +6150,10 @@
         <v>231261</v>
       </c>
       <c r="B250" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C250" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D250">
         <v>2.63</v>
@@ -6170,10 +6170,10 @@
         <v>231262</v>
       </c>
       <c r="B251" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C251" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D251">
         <v>2.63</v>
@@ -6190,10 +6190,10 @@
         <v>231263</v>
       </c>
       <c r="B252" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C252" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D252">
         <v>3.17</v>
@@ -6210,10 +6210,10 @@
         <v>231264</v>
       </c>
       <c r="B253" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D253">
         <v>3.19</v>
@@ -6230,10 +6230,10 @@
         <v>231265</v>
       </c>
       <c r="B254" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D254">
         <v>3</v>
@@ -6250,10 +6250,10 @@
         <v>231267</v>
       </c>
       <c r="B255" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C255" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D255">
         <v>3.95</v>
@@ -6270,10 +6270,10 @@
         <v>231268</v>
       </c>
       <c r="B256" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C256" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D256">
         <v>2.99</v>
@@ -6290,10 +6290,10 @@
         <v>231269</v>
       </c>
       <c r="B257" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D257">
         <v>3.05</v>
@@ -6310,10 +6310,10 @@
         <v>231270</v>
       </c>
       <c r="B258" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D258">
         <v>3.74</v>
@@ -6330,10 +6330,10 @@
         <v>231271</v>
       </c>
       <c r="B259" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C259" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D259">
         <v>3.48</v>
@@ -6350,10 +6350,10 @@
         <v>231272</v>
       </c>
       <c r="B260" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D260">
         <v>2.58</v>
@@ -6370,10 +6370,10 @@
         <v>231273</v>
       </c>
       <c r="B261" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C261" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D261">
         <v>2.76</v>
@@ -6390,10 +6390,10 @@
         <v>231274</v>
       </c>
       <c r="B262" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C262" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D262">
         <v>3.33</v>
@@ -6410,10 +6410,10 @@
         <v>231275</v>
       </c>
       <c r="B263" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C263" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D263">
         <v>3.66</v>
@@ -6430,10 +6430,10 @@
         <v>231276</v>
       </c>
       <c r="B264" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D264">
         <v>3.79</v>
@@ -6450,10 +6450,10 @@
         <v>231277</v>
       </c>
       <c r="B265" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C265" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D265">
         <v>2.89</v>
@@ -6470,10 +6470,10 @@
         <v>231278</v>
       </c>
       <c r="B266" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D266">
         <v>2.62</v>
@@ -6490,10 +6490,10 @@
         <v>231279</v>
       </c>
       <c r="B267" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C267" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D267">
         <v>2.73</v>
@@ -6510,10 +6510,10 @@
         <v>231280</v>
       </c>
       <c r="B268" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C268" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D268">
         <v>3.23</v>
@@ -6530,10 +6530,10 @@
         <v>231281</v>
       </c>
       <c r="B269" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C269" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D269">
         <v>2.9</v>
@@ -6550,10 +6550,10 @@
         <v>231282</v>
       </c>
       <c r="B270" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C270" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D270">
         <v>3.92</v>
@@ -6570,10 +6570,10 @@
         <v>231284</v>
       </c>
       <c r="B271" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D271">
         <v>3.66</v>
@@ -6590,10 +6590,10 @@
         <v>231285</v>
       </c>
       <c r="B272" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D272">
         <v>3.7</v>
@@ -6610,10 +6610,10 @@
         <v>231287</v>
       </c>
       <c r="B273" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C273" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D273">
         <v>2.81</v>
@@ -6630,10 +6630,10 @@
         <v>231288</v>
       </c>
       <c r="B274" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C274" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D274">
         <v>2.52</v>
@@ -6650,10 +6650,10 @@
         <v>231289</v>
       </c>
       <c r="B275" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C275" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D275">
         <v>3.33</v>
@@ -6670,10 +6670,10 @@
         <v>231290</v>
       </c>
       <c r="B276" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C276" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D276">
         <v>1.8</v>
@@ -6690,10 +6690,10 @@
         <v>231291</v>
       </c>
       <c r="B277" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C277" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D277">
         <v>3.87</v>
@@ -6710,10 +6710,10 @@
         <v>231292</v>
       </c>
       <c r="B278" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C278" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D278">
         <v>3.06</v>
@@ -6730,10 +6730,10 @@
         <v>231293</v>
       </c>
       <c r="B279" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C279" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D279">
         <v>2.85</v>
@@ -6750,10 +6750,10 @@
         <v>231294</v>
       </c>
       <c r="B280" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C280" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D280">
         <v>3.6</v>
@@ -6770,10 +6770,10 @@
         <v>231295</v>
       </c>
       <c r="B281" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D281">
         <v>3.76</v>
@@ -6790,10 +6790,10 @@
         <v>231296</v>
       </c>
       <c r="B282" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D282">
         <v>3.46</v>
@@ -6810,10 +6810,10 @@
         <v>231297</v>
       </c>
       <c r="B283" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C283" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D283">
         <v>3.28</v>
@@ -6830,10 +6830,10 @@
         <v>231298</v>
       </c>
       <c r="B284" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C284" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D284">
         <v>3.43</v>
@@ -6850,10 +6850,10 @@
         <v>231299</v>
       </c>
       <c r="B285" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C285" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D285">
         <v>3.27</v>
@@ -6870,10 +6870,10 @@
         <v>231300</v>
       </c>
       <c r="B286" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C286" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D286">
         <v>2.5299999999999998</v>
@@ -6890,10 +6890,10 @@
         <v>231301</v>
       </c>
       <c r="B287" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D287">
         <v>2.59</v>
@@ -6910,10 +6910,10 @@
         <v>231302</v>
       </c>
       <c r="B288" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C288" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D288">
         <v>3.39</v>
@@ -6930,10 +6930,10 @@
         <v>231303</v>
       </c>
       <c r="B289" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C289" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D289">
         <v>3.49</v>
@@ -6950,10 +6950,10 @@
         <v>231304</v>
       </c>
       <c r="B290" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C290" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D290">
         <v>2.84</v>
@@ -6970,10 +6970,10 @@
         <v>231305</v>
       </c>
       <c r="B291" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C291" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D291">
         <v>3.82</v>
@@ -6990,10 +6990,10 @@
         <v>231306</v>
       </c>
       <c r="B292" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C292" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D292">
         <v>2.84</v>
@@ -7010,10 +7010,10 @@
         <v>231307</v>
       </c>
       <c r="B293" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C293" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D293">
         <v>3.1</v>
@@ -7030,10 +7030,10 @@
         <v>231308</v>
       </c>
       <c r="B294" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C294" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D294">
         <v>2.89</v>
@@ -7050,10 +7050,10 @@
         <v>231309</v>
       </c>
       <c r="B295" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C295" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D295">
         <v>3.07</v>
@@ -7070,10 +7070,10 @@
         <v>231310</v>
       </c>
       <c r="B296" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C296" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D296">
         <v>2.59</v>
@@ -7090,10 +7090,10 @@
         <v>231311</v>
       </c>
       <c r="B297" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C297" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D297">
         <v>3.76</v>
@@ -7110,10 +7110,10 @@
         <v>231312</v>
       </c>
       <c r="B298" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C298" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D298">
         <v>3.09</v>
@@ -7130,10 +7130,10 @@
         <v>231313</v>
       </c>
       <c r="B299" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C299" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D299">
         <v>3.05</v>
@@ -7150,10 +7150,10 @@
         <v>231314</v>
       </c>
       <c r="B300" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D300">
         <v>3.15</v>
@@ -7170,10 +7170,10 @@
         <v>231315</v>
       </c>
       <c r="B301" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C301" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D301">
         <v>2.66</v>
@@ -7190,10 +7190,10 @@
         <v>231316</v>
       </c>
       <c r="B302" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C302" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D302">
         <v>2.77</v>
@@ -7210,10 +7210,10 @@
         <v>231317</v>
       </c>
       <c r="B303" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C303" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D303">
         <v>2.71</v>
@@ -7230,10 +7230,10 @@
         <v>231318</v>
       </c>
       <c r="B304" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C304" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D304">
         <v>3.96</v>
@@ -7250,10 +7250,10 @@
         <v>231319</v>
       </c>
       <c r="B305" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C305" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D305">
         <v>3.32</v>
@@ -7270,10 +7270,10 @@
         <v>231320</v>
       </c>
       <c r="B306" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C306" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D306">
         <v>3.14</v>
@@ -7290,10 +7290,10 @@
         <v>231321</v>
       </c>
       <c r="B307" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C307" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D307">
         <v>3.45</v>
@@ -7310,10 +7310,10 @@
         <v>231322</v>
       </c>
       <c r="B308" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C308" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D308">
         <v>3.73</v>
@@ -7330,10 +7330,10 @@
         <v>231323</v>
       </c>
       <c r="B309" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C309" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D309">
         <v>3.91</v>
@@ -7350,10 +7350,10 @@
         <v>231324</v>
       </c>
       <c r="B310" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C310" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D310">
         <v>2.94</v>
@@ -7370,10 +7370,10 @@
         <v>231325</v>
       </c>
       <c r="B311" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C311" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D311">
         <v>2.81</v>
@@ -7390,10 +7390,10 @@
         <v>231326</v>
       </c>
       <c r="B312" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C312" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D312">
         <v>3.05</v>
@@ -7410,10 +7410,10 @@
         <v>231327</v>
       </c>
       <c r="B313" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D313">
         <v>3.62</v>
@@ -7430,10 +7430,10 @@
         <v>231328</v>
       </c>
       <c r="B314" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D314">
         <v>2.86</v>
@@ -7450,10 +7450,10 @@
         <v>231329</v>
       </c>
       <c r="B315" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C315" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D315">
         <v>2.69</v>
@@ -7470,10 +7470,10 @@
         <v>231330</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C316" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D316">
         <v>2.6</v>
@@ -7490,10 +7490,10 @@
         <v>231331</v>
       </c>
       <c r="B317" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C317" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D317">
         <v>2.65</v>
@@ -7510,10 +7510,10 @@
         <v>231332</v>
       </c>
       <c r="B318" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C318" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D318">
         <v>2.59</v>
@@ -7530,10 +7530,10 @@
         <v>231333</v>
       </c>
       <c r="B319" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C319" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D319">
         <v>3.17</v>
@@ -7550,10 +7550,10 @@
         <v>231334</v>
       </c>
       <c r="B320" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C320" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D320">
         <v>3.75</v>
@@ -7570,10 +7570,10 @@
         <v>231335</v>
       </c>
       <c r="B321" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C321" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D321">
         <v>3.96</v>
@@ -7590,10 +7590,10 @@
         <v>231336</v>
       </c>
       <c r="B322" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C322" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D322">
         <v>2.94</v>
@@ -7610,10 +7610,10 @@
         <v>231337</v>
       </c>
       <c r="B323" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C323" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D323">
         <v>3.05</v>
@@ -7630,10 +7630,10 @@
         <v>231338</v>
       </c>
       <c r="B324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C324" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D324">
         <v>2.7</v>
@@ -7650,10 +7650,10 @@
         <v>231339</v>
       </c>
       <c r="B325" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C325" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D325">
         <v>2.95</v>
@@ -7670,10 +7670,10 @@
         <v>231340</v>
       </c>
       <c r="B326" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C326" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D326">
         <v>3.02</v>
@@ -7690,10 +7690,10 @@
         <v>231341</v>
       </c>
       <c r="B327" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C327" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D327">
         <v>2.99</v>
@@ -7710,10 +7710,10 @@
         <v>231342</v>
       </c>
       <c r="B328" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C328" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D328">
         <v>3.8</v>
@@ -7730,10 +7730,10 @@
         <v>231343</v>
       </c>
       <c r="B329" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C329" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D329">
         <v>3.78</v>
@@ -7750,10 +7750,10 @@
         <v>231344</v>
       </c>
       <c r="B330" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C330" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D330">
         <v>2.84</v>
@@ -7770,10 +7770,10 @@
         <v>231345</v>
       </c>
       <c r="B331" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C331" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D331">
         <v>2.9</v>
@@ -7790,10 +7790,10 @@
         <v>231346</v>
       </c>
       <c r="B332" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C332" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D332">
         <v>3.52</v>
@@ -7810,10 +7810,10 @@
         <v>231347</v>
       </c>
       <c r="B333" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C333" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D333">
         <v>3.44</v>
@@ -7830,10 +7830,10 @@
         <v>231348</v>
       </c>
       <c r="B334" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C334" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D334">
         <v>3.5</v>
@@ -7850,10 +7850,10 @@
         <v>231349</v>
       </c>
       <c r="B335" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C335" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D335">
         <v>3.23</v>
@@ -7870,10 +7870,10 @@
         <v>231350</v>
       </c>
       <c r="B336" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D336">
         <v>3.67</v>
@@ -7890,10 +7890,10 @@
         <v>231351</v>
       </c>
       <c r="B337" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C337" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D337">
         <v>2.5299999999999998</v>
@@ -7910,10 +7910,10 @@
         <v>231352</v>
       </c>
       <c r="B338" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C338" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D338">
         <v>3.06</v>
@@ -7930,10 +7930,10 @@
         <v>231353</v>
       </c>
       <c r="B339" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C339" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D339">
         <v>2.86</v>
@@ -7950,10 +7950,10 @@
         <v>231354</v>
       </c>
       <c r="B340" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C340" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D340">
         <v>2.87</v>
@@ -7970,10 +7970,10 @@
         <v>231355</v>
       </c>
       <c r="B341" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C341" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D341">
         <v>2.68</v>
@@ -7990,10 +7990,10 @@
         <v>231356</v>
       </c>
       <c r="B342" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C342" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D342">
         <v>3.5</v>
@@ -8010,10 +8010,10 @@
         <v>231357</v>
       </c>
       <c r="B343" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C343" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D343">
         <v>3.65</v>
@@ -8030,10 +8030,10 @@
         <v>231358</v>
       </c>
       <c r="B344" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C344" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D344">
         <v>3.79</v>
@@ -8050,10 +8050,10 @@
         <v>231359</v>
       </c>
       <c r="B345" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C345" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D345">
         <v>3.89</v>
@@ -8070,10 +8070,10 @@
         <v>231360</v>
       </c>
       <c r="B346" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C346" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D346">
         <v>3.82</v>
@@ -8090,10 +8090,10 @@
         <v>231286</v>
       </c>
       <c r="B347" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C347" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D347">
         <v>2.69</v>
@@ -8110,10 +8110,10 @@
         <v>231057</v>
       </c>
       <c r="B348" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C348" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D348">
         <v>3.11</v>
